--- a/Dokumentation/Stundenaufwand.xlsx
+++ b/Dokumentation/Stundenaufwand.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>Tätigkeiten</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Haar Cascade Training + Verbesserungen</t>
+  </si>
+  <si>
+    <t>Appdesign + Benutzerfragen + Pilzinformationen</t>
   </si>
 </sst>
 </file>
@@ -432,60 +435,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -507,9 +465,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,6 +472,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,54 +884,54 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="27">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="28"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="28"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="27">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="29"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="29"/>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="27"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -953,172 +956,172 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="27">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="29"/>
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="27">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="29"/>
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="27"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="27">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="29"/>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="27"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="29"/>
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="27"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="29"/>
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="27"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="29"/>
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="27"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="27">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="29"/>
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="27"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="29"/>
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="27"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="29"/>
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="27"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="29"/>
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="27"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="29"/>
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="27"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="29"/>
       <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="27"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="27"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="27"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="29"/>
       <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="27"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+      <c r="A29" s="29"/>
       <c r="B29" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="27"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="A30" s="29"/>
       <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="27"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
+      <c r="A31" s="29"/>
       <c r="B31" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="27"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1132,10 +1135,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="4">
         <f>SUM(C2:C32)</f>
         <v>270</v>
@@ -1143,12 +1146,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A19:A31"/>
     <mergeCell ref="C12:C13"/>
@@ -1157,6 +1154,12 @@
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C19:C31"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1168,7 +1171,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,259 +1188,259 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="13">
         <v>17</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="14">
         <v>7</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="14">
         <v>4</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="15">
         <v>24</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="19">
         <f>SUM(C2:C5)</f>
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="14">
         <v>10</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="15">
         <v>22</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="20">
         <f>SUM(C6:C7)</f>
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="13">
         <v>12</v>
       </c>
-      <c r="D8" s="33"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="15">
         <v>4</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="19">
         <f>SUM(C8:C9)</f>
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="13">
         <v>21</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="15">
         <v>12</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="19">
         <f>SUM(C10:C11)</f>
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="16">
         <v>29</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="21">
         <f>SUM(C12)</f>
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="13">
         <v>7</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="14">
         <v>12</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="15">
         <v>18</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="19">
         <f>SUM(C13:C15)</f>
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="13">
         <v>12</v>
       </c>
-      <c r="D16" s="37"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="29">
+      <c r="A17" s="41"/>
+      <c r="B17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="14">
         <v>32</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="15">
         <v>5</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="19">
         <f>SUM(C16:C18)</f>
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="14">
         <v>7</v>
       </c>
-      <c r="D19" s="33"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="26">
         <v>9</v>
       </c>
-      <c r="D20" s="33"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="39" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="24">
         <v>56</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="19">
         <f>SUM(C19:C21)</f>
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="4">
         <f>SUM(C2:C21)</f>
         <v>320</v>

--- a/Dokumentation/Stundenaufwand.xlsx
+++ b/Dokumentation/Stundenaufwand.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Abbas Hakan" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
   <si>
     <t>Tätigkeiten</t>
   </si>
@@ -202,6 +202,72 @@
   </si>
   <si>
     <t>Appdesign + Benutzerfragen + Pilzinformationen</t>
+  </si>
+  <si>
+    <t>24.06.2016-31.07</t>
+  </si>
+  <si>
+    <t>OpenCV / C++ installieren</t>
+  </si>
+  <si>
+    <t>OpenCV / C++ einlesen</t>
+  </si>
+  <si>
+    <t>OpenCV / C++ Testprojekte</t>
+  </si>
+  <si>
+    <t>01.08.2016 - 30.08.2016</t>
+  </si>
+  <si>
+    <t>Pilzerkennung nach Farben (13. 8. 2016)</t>
+  </si>
+  <si>
+    <t>XML - Lesen einlesen</t>
+  </si>
+  <si>
+    <t>XML Datei erstellen</t>
+  </si>
+  <si>
+    <t>XML lesen</t>
+  </si>
+  <si>
+    <t>XML in Pilz Klasse speichern und in C++ Programm verwenden</t>
+  </si>
+  <si>
+    <t>In HSV- Raum umwandeln + Schwarz Weiß ansicht</t>
+  </si>
+  <si>
+    <t>Hough Circle Transformation einlesen</t>
+  </si>
+  <si>
+    <t>Hough Circle Transformation implementiert (ohne Trackbars)</t>
+  </si>
+  <si>
+    <t>Canny Edge Detection einlesen</t>
+  </si>
+  <si>
+    <t>Hough Circle Transformation funktionsfähig (16.01) (inclusive Tackbars)</t>
+  </si>
+  <si>
+    <t>Canny Edge Detection (16.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Mehr) Testdaten in das System gespeichert + Tests etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zusatzaufwand für Präsentatationen etc. </t>
+  </si>
+  <si>
+    <t>Diplomschrift verbessern und erweitern</t>
+  </si>
+  <si>
+    <t>Verbesserungen an bisherigen Funktionen</t>
+  </si>
+  <si>
+    <t>01.04.2017 - 04.04.2017</t>
+  </si>
+  <si>
+    <t>Diplomarbeit verbessern und erweitern</t>
   </si>
 </sst>
 </file>
@@ -427,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -473,21 +539,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -520,6 +586,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,54 +984,54 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="29">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="A3" s="31"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="31"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="29">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="28"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="28"/>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -956,172 +1056,172 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="29">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="29">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="28"/>
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="29"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="29">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="28"/>
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="29"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="28"/>
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="28"/>
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="29"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="29">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="28"/>
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="28"/>
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="28"/>
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="29"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="28"/>
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="29"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="28"/>
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
+      <c r="A25" s="28"/>
       <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="31" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="28"/>
       <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="27"/>
+      <c r="C28" s="29"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+      <c r="A29" s="28"/>
       <c r="B29" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="29"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="28"/>
       <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="27"/>
+      <c r="C30" s="29"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="A31" s="28"/>
       <c r="B31" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="27"/>
+      <c r="C31" s="29"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1135,10 +1235,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="30"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="4">
         <f>SUM(C2:C32)</f>
         <v>270</v>
@@ -1146,6 +1246,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A19:A31"/>
     <mergeCell ref="C12:C13"/>
@@ -1154,12 +1260,6 @@
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C19:C31"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1170,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1437,10 +1537,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="4">
         <f>SUM(C2:C21)</f>
         <v>320</v>
@@ -1464,12 +1564,305 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="55"/>
+      <c r="B3" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
+      <c r="B4" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="55"/>
+      <c r="B7" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="55"/>
+      <c r="B8" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="47">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="56"/>
+      <c r="B9" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="58"/>
+      <c r="B14" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="58"/>
+      <c r="B16" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="47">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="47">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="49">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="45">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A17:A19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Dokumentation/Stundenaufwand.xlsx
+++ b/Dokumentation/Stundenaufwand.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Abbas Hakan" sheetId="1" r:id="rId1"/>
     <sheet name="Arbeithuber Markus" sheetId="2" r:id="rId2"/>
     <sheet name="Froschauer Jakob" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
   <si>
     <t>Tätigkeiten</t>
   </si>
@@ -268,12 +268,51 @@
   </si>
   <si>
     <t>Diplomarbeit verbessern und erweitern</t>
+  </si>
+  <si>
+    <t>Notiz: Der Aufwand wurde immer auf- bzw. abgerundet je nachdem wie hoch die Zahl war. Damit der Aufwand einfacher zum lesen ist.</t>
+  </si>
+  <si>
+    <t>Beispiel: Aus 31 wurde 30. Aus 39 wurde 40</t>
+  </si>
+  <si>
+    <t>Besprechung mit Betreuungslehrer</t>
+  </si>
+  <si>
+    <t>Thema</t>
+  </si>
+  <si>
+    <t>Probleme bei der Kompilierung vom openCV .cpp Datei</t>
+  </si>
+  <si>
+    <t>Vorschlag die stoi() Methode in eine eigene Datei zu exportieren</t>
+  </si>
+  <si>
+    <t>Probleme bei der Erstellung vom Android Standalone Toolchain</t>
+  </si>
+  <si>
+    <t>Probleme bei der Kompilierung von der openCV Bibliothek</t>
+  </si>
+  <si>
+    <t>Vorschlag ein neues Projekt mit C++ Unterstützung mit JNI Funktion zu erstellen</t>
+  </si>
+  <si>
+    <t>Probleme beim Imporieren der bereits existierende Projekt in das neu mit C++ Unterstützung erstellte Projekt</t>
+  </si>
+  <si>
+    <t>Besprechung wie man ein Bitmap von Android in ein temporäre Datei speichert und den Pfad dann als Parameter in die JNI Methode übergibt</t>
+  </si>
+  <si>
+    <t>Notiz: Die viel älteren Besprechungen wurden nicht aufgezeichnet, weil die Probleme damals eher Kleinigkeiten waren und keine Dokumentation benötigten.</t>
+  </si>
+  <si>
+    <t>Benutzerdefinierte Fragen für Pilze + Ausgabe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,12 +532,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -542,54 +578,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -609,6 +597,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,6 +667,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,7 +689,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -714,23 +764,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -766,23 +799,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -959,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="A1:C33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,296 +986,416 @@
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="167.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="128.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="F1" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="C2" s="38">
+        <v>10</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="1">
+        <v>42794</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="C3" s="38">
+        <v>10</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="1">
+        <v>42800</v>
+      </c>
+      <c r="H3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="29"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="C4" s="38">
+        <v>10</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="1">
+        <v>42807</v>
+      </c>
+      <c r="H4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="C5" s="38">
+        <v>15</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="1">
+        <v>42814</v>
+      </c>
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="29"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="C6" s="38">
+        <v>5</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="1">
+        <v>42815</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="29"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="38">
+        <v>10</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="1">
+        <v>42821</v>
+      </c>
+      <c r="H7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="40">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F8" s="41"/>
+      <c r="G8" s="1">
+        <v>42822</v>
+      </c>
+      <c r="H8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="C10" s="38">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="29"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="C11" s="38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="C12" s="38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="29"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="C13" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="29">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" t="s">
+      <c r="C15" s="38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="29"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" t="s">
+      <c r="C16" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="29"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" t="s">
+      <c r="C17" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="29"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" t="s">
+      <c r="C18" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="29"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="29">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" t="s">
+      <c r="C20" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="29"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" t="s">
+      <c r="C21" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="29"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" t="s">
+      <c r="C22" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="29"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" t="s">
+      <c r="C23" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="29"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" t="s">
+      <c r="C24" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
+      <c r="B25" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="29"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" t="s">
+      <c r="C25" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="29"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="30" t="s">
+      <c r="C26" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="29"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="29"/>
+      <c r="C27" s="44">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="44"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
+      <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="29"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" t="s">
+      <c r="C29" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="29"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" t="s">
+      <c r="C30" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="29"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" t="s">
+      <c r="C31" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="29"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C32" s="38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
+      <c r="B33" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="C33" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="4">
-        <f>SUM(C2:C32)</f>
-        <v>270</v>
+      <c r="B34" s="26"/>
+      <c r="C34" s="3">
+        <f>SUM(C2:C33)</f>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C2:C4"/>
+  <mergeCells count="9">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C5:C7"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="A19:A31"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C14:C18"/>
     <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C19:C31"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1282,266 +1418,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>17</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>7</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>4</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>24</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <f>SUM(C2:C5)</f>
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>10</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>22</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <f>SUM(C6:C7)</f>
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>12</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>4</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <f>SUM(C8:C9)</f>
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>21</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>12</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <f>SUM(C10:C11)</f>
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>29</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <f>SUM(C12)</f>
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>7</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>12</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>18</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <f>SUM(C13:C15)</f>
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>12</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>32</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>5</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <f>SUM(C16:C18)</f>
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>7</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>9</v>
       </c>
-      <c r="D20" s="18"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="23">
         <v>56</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <f>SUM(C19:C21)</f>
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="4">
+      <c r="B22" s="47"/>
+      <c r="C22" s="3">
         <f>SUM(C2:C21)</f>
         <v>320</v>
       </c>
@@ -1566,7 +1702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1577,276 +1713,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="30">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="30">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="30">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="30">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="48" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="32">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="48" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="48" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="32">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="48" t="s">
+      <c r="A16" s="62"/>
+      <c r="B16" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="32">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="34">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="30">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="48" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="32">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="34">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="48" t="s">
+      <c r="A21" s="58"/>
+      <c r="B21" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="34">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="46" t="s">
+      <c r="A23" s="57"/>
+      <c r="B23" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="30">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="48" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="32">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="34">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="48" t="s">
+      <c r="A26" s="58"/>
+      <c r="B26" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="32">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="37">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="45">
+      <c r="B28" s="47"/>
+      <c r="C28" s="28">
         <v>335</v>
       </c>
     </row>
